--- a/forecasting/results/Eval_of_features.xlsx
+++ b/forecasting/results/Eval_of_features.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,6 +451,9 @@
       <c r="I2" s="1">
         <v>5289.5028316355401</v>
       </c>
+      <c r="J2" s="1">
+        <v>4654.2835648632699</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -480,6 +483,9 @@
       <c r="I3" s="1">
         <v>1491.7411686170501</v>
       </c>
+      <c r="J3" s="1">
+        <v>2997.01470098039</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -506,6 +512,12 @@
       <c r="H4" s="1">
         <v>1206.4983377035201</v>
       </c>
+      <c r="I4" s="1">
+        <v>924.59092099860595</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1209.80311451954</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -532,6 +544,12 @@
       <c r="H5" s="1">
         <v>841.02261514947395</v>
       </c>
+      <c r="I5" s="1">
+        <v>1170.8642648170701</v>
+      </c>
+      <c r="J5" s="1">
+        <v>818.62054785792304</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -557,6 +575,12 @@
       </c>
       <c r="H6" s="1">
         <v>1036.99905511927</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1752.52343456515</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1049.1905248164501</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -592,6 +616,18 @@
       <c r="H9">
         <f>AVERAGE(H2:H6)</f>
         <v>2135.9832717964609</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(I2:I6)</f>
+        <v>2125.8445241266832</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:K9" si="1">AVERAGE(J2:J6)</f>
+        <v>2145.7824906075143</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/forecasting/results/Eval_of_features.xlsx
+++ b/forecasting/results/Eval_of_features.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>consumption_percent_gdp</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>17 lags, 16 year training period, no preprocessing</t>
+  </si>
+  <si>
+    <t>ALSO try ADDING MORE LAGS</t>
   </si>
 </sst>
 </file>
@@ -75,12 +78,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -103,6 +112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="8.7265625" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
@@ -407,7 +426,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -442,7 +461,7 @@
       <c r="F2" s="1">
         <v>3720.3898044698499</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>3520.6851778341302</v>
       </c>
       <c r="H2" s="1">
@@ -453,6 +472,9 @@
       </c>
       <c r="J2" s="1">
         <v>4654.2835648632699</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5536.5212737771899</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -474,7 +496,7 @@
       <c r="F3" s="1">
         <v>2669.4628952717399</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>483.33416958922197</v>
       </c>
       <c r="H3" s="1">
@@ -485,6 +507,9 @@
       </c>
       <c r="J3" s="1">
         <v>2997.01470098039</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1562.0329611277</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -506,7 +531,7 @@
       <c r="F4" s="1">
         <v>965.439192211717</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>805.83882507978797</v>
       </c>
       <c r="H4" s="1">
@@ -517,6 +542,9 @@
       </c>
       <c r="J4" s="1">
         <v>1209.80311451954</v>
+      </c>
+      <c r="K4" s="1">
+        <v>876.79354059875197</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -538,7 +566,7 @@
       <c r="F5" s="1">
         <v>1496.6597267219699</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1335.63585169926</v>
       </c>
       <c r="H5" s="1">
@@ -549,6 +577,9 @@
       </c>
       <c r="J5" s="1">
         <v>818.62054785792304</v>
+      </c>
+      <c r="K5" s="1">
+        <v>995.39447583523702</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -570,7 +601,7 @@
       <c r="F6" s="1">
         <v>1030.9840615390401</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>1427.6880454995601</v>
       </c>
       <c r="H6" s="1">
@@ -581,6 +612,9 @@
       </c>
       <c r="J6" s="1">
         <v>1049.1905248164501</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1892.42821115942</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -609,7 +643,7 @@
         <f>AVERAGE(F2:F6)</f>
         <v>1976.5871360428634</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f>AVERAGE(G2:G6)</f>
         <v>1514.636413940392</v>
       </c>
@@ -625,9 +659,14 @@
         <f t="shared" ref="J9:K9" si="1">AVERAGE(J2:J6)</f>
         <v>2145.7824906075143</v>
       </c>
-      <c r="K9" t="e">
+      <c r="K9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2172.6340924996598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
